--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-922521.3975153166</v>
+        <v>-924408.9790317187</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>345.3825242635467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>64.39602902121995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>62.652454357909</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4697198203026</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>307.848298263752</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>33.23657099140143</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>125.8721928563319</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>49.20343734336417</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>26.49677716875706</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>336.4390971413758</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>28.47797095035145</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>99.67868129518095</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.41260797242959</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>39.47903663031028</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>21.12833712222974</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>204.1291651532055</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002176</v>
+        <v>169.7438101404425</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>28.07505500212997</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>167.5476332178969</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>174.7430637258774</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.76481347543448</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,7 +2770,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>42.20569823125394</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.20383876096153</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1387.069036214947</v>
+        <v>1353.054351842972</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1353.054351842972</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1353.054351842972</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>967.2660992447275</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>556.28019445512</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2400.896419902057</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2147.134634540149</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.134634540149</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.134634540149</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>1773.668876279069</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y2" t="n">
-        <v>1773.668876279069</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.5406308981343</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="C4" t="n">
-        <v>359.6044479702274</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>528.5406308981343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>528.5406308981343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>528.5406308981343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>528.5406308981343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>528.5406308981343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>528.5406308981343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.5406308981343</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.004887669471</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>884.2894331389248</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>884.2894331389248</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>498.5011805406805</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>87.51527575107298</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036446</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.744059709405</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1503.604727733593</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.3917961488082</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>261.3917961488082</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>261.3917961488082</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>261.3917961488082</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036446</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>261.3917961488082</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>261.3917961488082</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>261.3917961488082</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>261.3917961488082</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.3917961488082</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2134.371763268271</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1524.727234344395</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1524.727234344395</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1138.93898174615</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2520.971603332393</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>485.0749338020197</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>485.0749338020197</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W10" t="n">
-        <v>485.0749338020197</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>485.0749338020197</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>485.0749338020197</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.3704617344995</v>
+        <v>434.101493148623</v>
       </c>
       <c r="C13" t="n">
-        <v>751.4342788065926</v>
+        <v>434.101493148623</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728253</v>
+        <v>283.9848537362873</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904322</v>
+        <v>283.9848537362873</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925218</v>
+        <v>137.0949062383769</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>137.0949062383769</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344995</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344995</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.3704617344995</v>
+        <v>615.7499579788628</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,13 +5294,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.6754855415405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>268.6754855415405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>118.5588461292048</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>118.5588461292048</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W16" t="n">
-        <v>496.665036439558</v>
+        <v>531.397718270632</v>
       </c>
       <c r="X16" t="n">
-        <v>268.6754855415405</v>
+        <v>303.4081673726147</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.6754855415405</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,22 +5501,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550795</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181189</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>268.6754855415409</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705745</v>
+        <v>732.3583290631011</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705745</v>
+        <v>563.4221461351942</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705745</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>816.7621830075351</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3450129705745</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705745</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705745</v>
+        <v>760.716970479394</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514081</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404653</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1322.408125380249</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1098.622710169755</v>
+        <v>1415.315448865544</v>
       </c>
       <c r="U25" t="n">
-        <v>809.4940713833128</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="V25" t="n">
-        <v>554.8095831774259</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="W25" t="n">
-        <v>265.3924131404653</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404653</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404653</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6248,7 +6248,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,25 +6291,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765192</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>559.3999450277965</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>806.1650729342607</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227161</v>
+        <v>439.5324299542175</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761801</v>
+        <v>326.3571123076813</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452151</v>
+        <v>232.0013381767163</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441929</v>
+        <v>139.8491098756939</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386977</v>
+        <v>902.6804289818917</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220511</v>
+        <v>730.451743365245</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.347962571585</v>
+        <v>565.4200295030864</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,40 +6686,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,13 +6950,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,34 +7072,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,7 +7108,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7181,19 +7181,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7409,22 +7409,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>148.274714356655</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>108.2028650457828</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>109.4347917372259</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,16 +23470,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>124.2927109007015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888925</v>
       </c>
     </row>
     <row r="17">
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518772</v>
+        <v>48.84084321165233</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>151.7569251798073</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>84.59001010593109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>23.17774625772583</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.7827475829548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316312031</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.1775579625761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1214025.446096307</v>
+        <v>1214025.446096308</v>
       </c>
     </row>
     <row r="9">
@@ -26320,37 +26320,37 @@
         <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="F2" t="n">
         <v>175963.076881969</v>
       </c>
       <c r="G2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="H2" t="n">
         <v>175963.076881969</v>
       </c>
       <c r="I2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.076881969</v>
       </c>
       <c r="J2" t="n">
         <v>175963.0768819689</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053712</v>
+        <v>183069.9618053714</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194641</v>
+      </c>
+      <c r="M2" t="n">
+        <v>184734.398219464</v>
+      </c>
+      <c r="N2" t="n">
+        <v>184734.398219464</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194639</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.3982194641</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194639</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194641</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194641</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284535</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106725</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,19 +26482,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-653725.4268450146</v>
       </c>
       <c r="C6" t="n">
-        <v>-63757.54763047017</v>
+        <v>-63757.54763047009</v>
       </c>
       <c r="D6" t="n">
-        <v>-63757.54763047019</v>
+        <v>-63757.54763047014</v>
       </c>
       <c r="E6" t="n">
-        <v>-463358.8931305145</v>
+        <v>-463456.3522564864</v>
       </c>
       <c r="F6" t="n">
-        <v>61801.14334638161</v>
+        <v>61703.68422040947</v>
       </c>
       <c r="G6" t="n">
-        <v>61801.14334638161</v>
+        <v>61703.68422040954</v>
       </c>
       <c r="H6" t="n">
-        <v>61801.14334638169</v>
+        <v>61703.68422040954</v>
       </c>
       <c r="I6" t="n">
-        <v>61801.14334638142</v>
+        <v>61703.68422040947</v>
       </c>
       <c r="J6" t="n">
-        <v>-114622.0758462113</v>
+        <v>-114719.5349721838</v>
       </c>
       <c r="K6" t="n">
-        <v>1939.917871235521</v>
+        <v>1921.424133301672</v>
       </c>
       <c r="L6" t="n">
-        <v>32082.99077038045</v>
+        <v>32082.99077038057</v>
       </c>
       <c r="M6" t="n">
-        <v>-92375.11766258968</v>
+        <v>-92375.11766258974</v>
       </c>
       <c r="N6" t="n">
-        <v>42425.89757124732</v>
+        <v>42425.89757124738</v>
       </c>
       <c r="O6" t="n">
-        <v>42425.89757124751</v>
+        <v>42425.89757124727</v>
       </c>
       <c r="P6" t="n">
-        <v>-1736.707731598188</v>
+        <v>-1736.707731598028</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>68.40164575724833</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>152.0522913364379</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>117.1795258240283</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>43.67581912971627</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>57.42459350725557</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>380.5475990293936</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>53.95978732560543</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>96.21761067956707</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>338.7761146022505</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>70.4369486003356</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>257.8039032916263</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>186.8443170414101</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36604,19 +36604,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36683,19 +36683,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>298.8501529445943</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
